--- a/tables/log-odds/pillsmax.xlsx
+++ b/tables/log-odds/pillsmax.xlsx
@@ -31348,13 +31348,13 @@
         <v>-0.41660670783310649</v>
       </c>
       <c r="C4" s="61">
-        <v>0.38220433712996432</v>
+        <v>0.38220433712996427</v>
       </c>
       <c r="D4" s="65">
         <v>-1.1825613158088952</v>
       </c>
       <c r="E4" s="69">
-        <v>0.34934790014268235</v>
+        <v>0.34934790014268224</v>
       </c>
     </row>
   </sheetData>
@@ -32025,13 +32025,13 @@
         <v>0.41524493604354629</v>
       </c>
       <c r="C3" s="115">
-        <v>0.26878615085388768</v>
+        <v>0.26878615085388763</v>
       </c>
       <c r="D3" s="119">
-        <v>-0.12341454739555524</v>
+        <v>-0.12341454739555513</v>
       </c>
       <c r="E3" s="123">
-        <v>0.95390441948264781</v>
+        <v>0.9539044194826477</v>
       </c>
     </row>
   </sheetData>
@@ -32179,13 +32179,13 @@
         <v>0.63825032680695659</v>
       </c>
       <c r="C3" s="1258">
-        <v>0.43589017467280516</v>
+        <v>0.43589017467280522</v>
       </c>
       <c r="D3" s="1261">
-        <v>-0.23529310383307067</v>
+        <v>-0.23529310383307078</v>
       </c>
       <c r="E3" s="1264">
-        <v>1.5117937574469837</v>
+        <v>1.511793757446984</v>
       </c>
     </row>
     <row r="4">
@@ -32513,10 +32513,10 @@
         <v>0.13062882946311977</v>
       </c>
       <c r="C3" s="1558">
-        <v>0.4527380952304571</v>
+        <v>0.45273809523045705</v>
       </c>
       <c r="D3" s="1561">
-        <v>-0.77667858847973981</v>
+        <v>-0.77667858847973958</v>
       </c>
       <c r="E3" s="1564">
         <v>1.0379362474059792</v>
@@ -32530,13 +32530,13 @@
         <v>0.21650602561473514</v>
       </c>
       <c r="C4" s="1576">
-        <v>0.28544951620315556</v>
+        <v>0.28544951620315562</v>
       </c>
       <c r="D4" s="1580">
-        <v>-0.35554758822460769</v>
+        <v>-0.3555475882246078</v>
       </c>
       <c r="E4" s="1584">
-        <v>0.78855963945407792</v>
+        <v>0.78855963945407814</v>
       </c>
     </row>
   </sheetData>
@@ -32650,13 +32650,13 @@
         <v>0.25061497308699293</v>
       </c>
       <c r="C3" s="1684">
-        <v>0.44871481138045549</v>
+        <v>0.44871481138045544</v>
       </c>
       <c r="D3" s="1688">
         <v>-0.64862960384457935</v>
       </c>
       <c r="E3" s="1692">
-        <v>1.1498595500185653</v>
+        <v>1.1498595500185651</v>
       </c>
     </row>
   </sheetData>
@@ -32787,13 +32787,13 @@
         <v>-0.024217054830309843</v>
       </c>
       <c r="C4" s="181">
-        <v>0.35174380696575436</v>
+        <v>0.35174380696575441</v>
       </c>
       <c r="D4" s="184">
-        <v>-0.72912739623429224</v>
+        <v>-0.72912739623429235</v>
       </c>
       <c r="E4" s="187">
-        <v>0.68069328657367245</v>
+        <v>0.68069328657367256</v>
       </c>
     </row>
     <row r="5">
@@ -32924,13 +32924,13 @@
         <v>-0.19788461558164894</v>
       </c>
       <c r="C3" s="1846">
-        <v>0.5741796417951307</v>
+        <v>0.57417964179513092</v>
       </c>
       <c r="D3" s="1850">
-        <v>-1.3485663313920078</v>
+        <v>-1.3485663313920082</v>
       </c>
       <c r="E3" s="1854">
-        <v>0.95279710022870989</v>
+        <v>0.95279710022871034</v>
       </c>
     </row>
   </sheetData>
@@ -33181,13 +33181,13 @@
         <v>-0.19779976989763851</v>
       </c>
       <c r="C4" s="268">
-        <v>0.22294659186497873</v>
+        <v>0.22294659186497875</v>
       </c>
       <c r="D4" s="272">
-        <v>-0.64459472427674214</v>
+        <v>-0.64459472427674225</v>
       </c>
       <c r="E4" s="276">
-        <v>0.24899518448146515</v>
+        <v>0.24899518448146521</v>
       </c>
     </row>
   </sheetData>
@@ -33241,13 +33241,13 @@
         <v>-0.065746271408874818</v>
       </c>
       <c r="C3" s="322">
-        <v>0.3173796949449369</v>
+        <v>0.31737969494493695</v>
       </c>
       <c r="D3" s="326">
-        <v>-0.70178939338517421</v>
+        <v>-0.70178939338517432</v>
       </c>
       <c r="E3" s="330">
-        <v>0.57029685056742463</v>
+        <v>0.57029685056742474</v>
       </c>
     </row>
   </sheetData>
@@ -33301,13 +33301,13 @@
         <v>-0.026053737770877626</v>
       </c>
       <c r="C3" s="376">
-        <v>0.24930667651546751</v>
+        <v>0.24930667651546753</v>
       </c>
       <c r="D3" s="380">
-        <v>-0.52567548228085348</v>
+        <v>-0.52567548228085359</v>
       </c>
       <c r="E3" s="384">
-        <v>0.47356800673909827</v>
+        <v>0.47356800673909832</v>
       </c>
     </row>
   </sheetData>
@@ -33361,13 +33361,13 @@
         <v>-0.28473783362755628</v>
       </c>
       <c r="C3" s="427">
-        <v>0.34652238935919583</v>
+        <v>0.34652238935919577</v>
       </c>
       <c r="D3" s="430">
         <v>-0.97918422031574082</v>
       </c>
       <c r="E3" s="433">
-        <v>0.40970855306062831</v>
+        <v>0.4097085530606282</v>
       </c>
     </row>
     <row r="4">
@@ -33378,13 +33378,13 @@
         <v>-0.7377284635208391</v>
       </c>
       <c r="C4" s="445">
-        <v>0.42435963813246458</v>
+        <v>0.42435963813246452</v>
       </c>
       <c r="D4" s="449">
-        <v>-1.5881641825586721</v>
+        <v>-1.5881641825586719</v>
       </c>
       <c r="E4" s="453">
-        <v>0.11270725551699379</v>
+        <v>0.11270725551699368</v>
       </c>
     </row>
   </sheetData>
@@ -33515,13 +33515,13 @@
         <v>-0.50448274115789327</v>
       </c>
       <c r="C4" s="568">
-        <v>0.29125697666143707</v>
+        <v>0.29125697666143713</v>
       </c>
       <c r="D4" s="572">
         <v>-1.0881747658328131</v>
       </c>
       <c r="E4" s="576">
-        <v>0.079209283517026496</v>
+        <v>0.079209283517026607</v>
       </c>
     </row>
   </sheetData>
